--- a/Content/Tables/GameData.xlsx
+++ b/Content/Tables/GameData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A039AFDD-0726-4EBF-BD81-49C4555A235D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F601E0-EBF9-4DBA-ABA6-ABBACFCDCD61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>ActorName</t>
   </si>
@@ -42,18 +42,71 @@
   </si>
   <si>
     <t>Cone</t>
+  </si>
+  <si>
+    <t>Location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TraitInfos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>((TagName="TraitNameA",Values=(0,1,3)),(TagName="TraitNameB",Values=(0,1,2)))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(X=1,Y=1,Z=1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(X=2,Y=2, Z=2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(X=2, Y=2, Z=2 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(TagName="TraitName3",Values=(1,1,1))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rotator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TraitInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Pitch=1.000000,Yaw=1.000000,Roll=1.000000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Pitch=1.000000,Yaw=1.000000,Roll=1.000001)</t>
+  </si>
+  <si>
+    <t>(Pitch=1.000000,Yaw=1.000000,Roll=1.000002)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -81,7 +134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -359,20 +412,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.4140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="5" max="7" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -385,8 +439,20 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -399,8 +465,20 @@
       <c r="D2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -413,8 +491,17 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -427,9 +514,20 @@
       <c r="D4">
         <v>1</v>
       </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -441,13 +539,13 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" customWidth="1"/>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -475,7 +573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -489,7 +587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -504,6 +602,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>